--- a/Results/Mathematics CT 2.xlsx
+++ b/Results/Mathematics CT 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\results giver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VH Website\vh-website\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AF308F-A5C6-4305-9D08-E84120E2FEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFC3420-8656-4CE5-AEF6-564B61D1EF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1028,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22:W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="W2">
         <f t="shared" ref="W2:W22" si="6">_xlfn.RANK.EQ(V2, $V$2:$V$1000, 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X2" t="s">
         <v>13</v>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="W3">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="X3" t="s">
         <v>15</v>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="W4">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y4">
         <f>SUM(Y1:Y3)</f>
@@ -1260,7 +1260,7 @@
       </c>
       <c r="W5">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" thickBot="1">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="W6">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="s">
         <v>19</v>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="W7">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" thickBot="1">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="W8">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" thickBot="1">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="W9">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" thickBot="1">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="W10">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" thickBot="1">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="W11">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" thickBot="1">
@@ -1560,7 +1560,7 @@
       <c r="U12" s="13"/>
       <c r="W12">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" thickBot="1">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="W13">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" thickBot="1">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="W14">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" thickBot="1">
@@ -1692,7 +1692,7 @@
       </c>
       <c r="W15">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" thickBot="1">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="W16">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="15" customHeight="1" thickBot="1">
@@ -1772,7 +1772,7 @@
       </c>
       <c r="W17">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="15" customHeight="1" thickBot="1">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="W18">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="15" customHeight="1" thickBot="1">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="W19">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="15" customHeight="1" thickBot="1">
@@ -1910,7 +1910,7 @@
       </c>
       <c r="W20">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="15" customHeight="1" thickBot="1">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="W21">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="28.2" customHeight="1" thickBot="1">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="W22">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="43.2" customHeight="1">
@@ -2038,6 +2038,14 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
+      <c r="V23">
+        <f t="shared" ref="V23:V25" si="9">O23+R23+S23+T23+U23</f>
+        <v>13</v>
+      </c>
+      <c r="W23">
+        <f t="shared" ref="W23:W25" si="10">_xlfn.RANK.EQ(V23, $V$2:$V$1000, 0)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:23" ht="28.8" customHeight="1">
       <c r="A24" s="14">
@@ -2072,6 +2080,14 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
+      <c r="V24">
+        <f t="shared" si="9"/>
+        <v>28.5</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:23" ht="43.2" customHeight="1">
       <c r="A25" s="14">
@@ -2104,6 +2120,14 @@
       </c>
       <c r="Q25">
         <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="9"/>
+        <v>10.75</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
     </row>
@@ -2539,7 +2563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AT17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/Results/Mathematics CT 2.xlsx
+++ b/Results/Mathematics CT 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VH Website\vh-website\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFC3420-8656-4CE5-AEF6-564B61D1EF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD72B9DB-FD8A-4FD0-A00B-7373D3ACC7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="132">
   <si>
     <t>ID</t>
   </si>
@@ -64,6 +64,18 @@
     <t>Rank in MCQ</t>
   </si>
   <si>
+    <t>Essay 1</t>
+  </si>
+  <si>
+    <t>Essay 2</t>
+  </si>
+  <si>
+    <t>Essay 3</t>
+  </si>
+  <si>
+    <t>Essay 4</t>
+  </si>
+  <si>
     <t>Total Marks</t>
   </si>
   <si>
@@ -190,18 +202,18 @@
     <t>3 Top Ten Questions Wrong</t>
   </si>
   <si>
+    <t>Section1-Q45</t>
+  </si>
+  <si>
+    <t>Section1-Q28</t>
+  </si>
+  <si>
+    <t>Section1-Q6</t>
+  </si>
+  <si>
     <t>Section1-Q1</t>
   </si>
   <si>
-    <t>Section1-Q28</t>
-  </si>
-  <si>
-    <t>Section1-Q6</t>
-  </si>
-  <si>
-    <t>Section1-Q45</t>
-  </si>
-  <si>
     <t>Section1-Q29</t>
   </si>
   <si>
@@ -214,27 +226,27 @@
     <t>Section1-Q38</t>
   </si>
   <si>
+    <t>Section1-Q22</t>
+  </si>
+  <si>
+    <t>Section1-Q43</t>
+  </si>
+  <si>
+    <t>Section1-Q23</t>
+  </si>
+  <si>
+    <t>Section1-Q11</t>
+  </si>
+  <si>
+    <t>Section1-Q17</t>
+  </si>
+  <si>
+    <t>Section1-Q36</t>
+  </si>
+  <si>
     <t>Section1-Q2</t>
   </si>
   <si>
-    <t>Section1-Q43</t>
-  </si>
-  <si>
-    <t>Section1-Q23</t>
-  </si>
-  <si>
-    <t>Section1-Q22</t>
-  </si>
-  <si>
-    <t>Section1-Q17</t>
-  </si>
-  <si>
-    <t>Section1-Q36</t>
-  </si>
-  <si>
-    <t>Section1-Q11</t>
-  </si>
-  <si>
     <t>Section1-Q32</t>
   </si>
   <si>
@@ -244,63 +256,66 @@
     <t>Section1-Q18</t>
   </si>
   <si>
+    <t>Section1-Q4</t>
+  </si>
+  <si>
+    <t>Section1-Q44</t>
+  </si>
+  <si>
+    <t>Section1-Q33</t>
+  </si>
+  <si>
     <t>Section1-Q9</t>
   </si>
   <si>
-    <t>Section1-Q44</t>
-  </si>
-  <si>
-    <t>Section1-Q33</t>
+    <t>Section1-Q19</t>
+  </si>
+  <si>
+    <t>Section1-Q12</t>
   </si>
   <si>
     <t>Section1-Q27</t>
   </si>
   <si>
+    <t>Section1-Q35</t>
+  </si>
+  <si>
+    <t>Section1-Q13</t>
+  </si>
+  <si>
+    <t>Section1-Q31</t>
+  </si>
+  <si>
+    <t>Section1-Q8</t>
+  </si>
+  <si>
+    <t>Section1-Q15</t>
+  </si>
+  <si>
+    <t>Roll</t>
+  </si>
+  <si>
+    <t>Section1-Q5</t>
+  </si>
+  <si>
+    <t>Section1-Q10</t>
+  </si>
+  <si>
     <t>Section1-Q14</t>
   </si>
   <si>
-    <t>Section1-Q12</t>
-  </si>
-  <si>
-    <t>Section1-Q31</t>
-  </si>
-  <si>
-    <t>Section1-Q19</t>
-  </si>
-  <si>
-    <t>Section1-Q13</t>
-  </si>
-  <si>
-    <t>Section1-Q4</t>
+    <t>Section1-Q16</t>
+  </si>
+  <si>
+    <t>Section1-Q20</t>
+  </si>
+  <si>
+    <t>Section1-Q21</t>
   </si>
   <si>
     <t>Section1-Q24</t>
   </si>
   <si>
-    <t>Section1-Q15</t>
-  </si>
-  <si>
-    <t>Roll</t>
-  </si>
-  <si>
-    <t>Section1-Q5</t>
-  </si>
-  <si>
-    <t>Section1-Q8</t>
-  </si>
-  <si>
-    <t>Section1-Q10</t>
-  </si>
-  <si>
-    <t>Section1-Q16</t>
-  </si>
-  <si>
-    <t>Section1-Q20</t>
-  </si>
-  <si>
-    <t>Section1-Q21</t>
-  </si>
-  <si>
     <t>Section1-Q25</t>
   </si>
   <si>
@@ -313,9 +328,6 @@
     <t>Section1-Q34</t>
   </si>
   <si>
-    <t>Section1-Q35</t>
-  </si>
-  <si>
     <t>Section1-Q37</t>
   </si>
   <si>
@@ -416,6 +428,9 @@
   </si>
   <si>
     <t>643388</t>
+  </si>
+  <si>
+    <t>121716</t>
   </si>
 </sst>
 </file>
@@ -1028,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22:W25"/>
+    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1062,14 +1077,26 @@
       <c r="Q1" t="s">
         <v>8</v>
       </c>
+      <c r="R1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" t="s">
+        <v>12</v>
+      </c>
       <c r="V1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="W1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="X1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Y1">
         <v>45</v>
@@ -1080,7 +1107,7 @@
         <v>757516</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>17</v>
@@ -1118,10 +1145,10 @@
       </c>
       <c r="W2">
         <f t="shared" ref="W2:W22" si="6">_xlfn.RANK.EQ(V2, $V$2:$V$1000, 0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" thickBot="1">
@@ -1129,7 +1156,7 @@
         <v>604057</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -1167,10 +1194,10 @@
       </c>
       <c r="W3">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="X3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" thickBot="1">
@@ -1178,7 +1205,7 @@
         <v>934245</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>16</v>
@@ -1216,7 +1243,7 @@
       </c>
       <c r="W4">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y4">
         <f>SUM(Y1:Y3)</f>
@@ -1228,23 +1255,29 @@
         <v>121716</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>18</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="P5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q5">
         <f t="shared" si="4"/>
@@ -1256,11 +1289,11 @@
       <c r="U5" s="11"/>
       <c r="V5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="W5">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" thickBot="1">
@@ -1268,7 +1301,7 @@
         <v>648081</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -1306,10 +1339,10 @@
       </c>
       <c r="W6">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Z6">
         <v>-0.25</v>
@@ -1320,7 +1353,7 @@
         <v>650004</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
@@ -1340,7 +1373,7 @@
       </c>
       <c r="Q7">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R7" s="10"/>
       <c r="S7" s="11"/>
@@ -1352,7 +1385,7 @@
       </c>
       <c r="W7">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" thickBot="1">
@@ -1360,7 +1393,7 @@
         <v>417695</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>14</v>
@@ -1398,7 +1431,7 @@
       </c>
       <c r="W8">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" thickBot="1">
@@ -1406,7 +1439,7 @@
         <v>400651</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -1444,7 +1477,7 @@
       </c>
       <c r="W9">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" thickBot="1">
@@ -1452,7 +1485,7 @@
         <v>979212</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
@@ -1472,7 +1505,7 @@
       </c>
       <c r="Q10">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R10" s="12"/>
       <c r="S10" s="13"/>
@@ -1484,7 +1517,7 @@
       </c>
       <c r="W10">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" thickBot="1">
@@ -1492,7 +1525,7 @@
         <v>542127</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
@@ -1512,7 +1545,7 @@
       </c>
       <c r="Q11">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R11" s="10"/>
       <c r="S11" s="11"/>
@@ -1524,7 +1557,7 @@
       </c>
       <c r="W11">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" thickBot="1">
@@ -1532,7 +1565,7 @@
         <v>678535</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
@@ -1552,7 +1585,7 @@
       </c>
       <c r="Q12">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R12" s="12"/>
       <c r="S12" s="13"/>
@@ -1560,7 +1593,7 @@
       <c r="U12" s="13"/>
       <c r="W12">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" thickBot="1">
@@ -1568,7 +1601,7 @@
         <v>303558</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -1606,7 +1639,7 @@
       </c>
       <c r="W13">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" thickBot="1">
@@ -1614,7 +1647,7 @@
         <v>196303</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>21</v>
@@ -1652,7 +1685,7 @@
       </c>
       <c r="W14">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" thickBot="1">
@@ -1660,7 +1693,7 @@
         <v>146014</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
@@ -1680,7 +1713,7 @@
       </c>
       <c r="Q15">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R15" s="10"/>
       <c r="S15" s="11"/>
@@ -1692,7 +1725,7 @@
       </c>
       <c r="W15">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" thickBot="1">
@@ -1700,7 +1733,7 @@
         <v>907183</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
@@ -1720,7 +1753,7 @@
       </c>
       <c r="Q16">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R16" s="10"/>
       <c r="S16" s="11"/>
@@ -1732,7 +1765,7 @@
       </c>
       <c r="W16">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="15" customHeight="1" thickBot="1">
@@ -1740,7 +1773,7 @@
         <v>399043</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
@@ -1760,7 +1793,7 @@
       </c>
       <c r="Q17">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R17" s="10"/>
       <c r="S17" s="11"/>
@@ -1772,7 +1805,7 @@
       </c>
       <c r="W17">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="15" customHeight="1" thickBot="1">
@@ -1780,7 +1813,7 @@
         <v>643388</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -1818,7 +1851,7 @@
       </c>
       <c r="W18">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="15" customHeight="1" thickBot="1">
@@ -1826,7 +1859,7 @@
         <v>421527</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>13</v>
@@ -1864,7 +1897,7 @@
       </c>
       <c r="W19">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="15" customHeight="1" thickBot="1">
@@ -1872,7 +1905,7 @@
         <v>158296</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C20">
         <v>15</v>
@@ -1910,7 +1943,7 @@
       </c>
       <c r="W20">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="15" customHeight="1" thickBot="1">
@@ -1918,7 +1951,7 @@
         <v>624690</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C21">
         <v>12</v>
@@ -1956,7 +1989,7 @@
       </c>
       <c r="W21">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="28.2" customHeight="1" thickBot="1">
@@ -1964,7 +1997,7 @@
         <v>575752</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C22">
         <v>9</v>
@@ -2002,7 +2035,7 @@
       </c>
       <c r="W22">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="43.2" customHeight="1">
@@ -2010,7 +2043,7 @@
         <v>621172</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C23">
         <v>15</v>
@@ -2038,21 +2071,13 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="V23">
-        <f t="shared" ref="V23:V25" si="9">O23+R23+S23+T23+U23</f>
-        <v>13</v>
-      </c>
-      <c r="W23">
-        <f t="shared" ref="W23:W25" si="10">_xlfn.RANK.EQ(V23, $V$2:$V$1000, 0)</f>
-        <v>5</v>
-      </c>
     </row>
     <row r="24" spans="1:23" ht="28.8" customHeight="1">
       <c r="A24" s="14">
         <v>764305</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C24">
         <v>30</v>
@@ -2080,21 +2105,13 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V24">
-        <f t="shared" si="9"/>
-        <v>28.5</v>
-      </c>
-      <c r="W24">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="25" spans="1:23" ht="43.2" customHeight="1">
       <c r="A25" s="14">
         <v>459889</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C25">
         <v>13</v>
@@ -2122,14 +2139,6 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="V25">
-        <f t="shared" si="9"/>
-        <v>10.75</v>
-      </c>
-      <c r="W25">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
     </row>
     <row r="26" spans="1:23">
       <c r="E26">
@@ -2150,7 +2159,7 @@
       </c>
       <c r="Q26">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2172,7 +2181,7 @@
       </c>
       <c r="Q27">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2194,7 +2203,7 @@
       </c>
       <c r="Q28">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2216,7 +2225,7 @@
       </c>
       <c r="Q29">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2238,7 +2247,7 @@
       </c>
       <c r="Q30">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2260,7 +2269,7 @@
       </c>
       <c r="Q31">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2300,135 +2309,135 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
         <v>44</v>
       </c>
-      <c r="H1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" t="s">
-        <v>40</v>
-      </c>
       <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
         <v>46</v>
       </c>
-      <c r="K1" t="s">
-        <v>42</v>
-      </c>
       <c r="L1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s">
         <v>44</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" t="s">
         <v>48</v>
-      </c>
-      <c r="P1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>49</v>
-      </c>
-      <c r="R1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B3">
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D4">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F5">
         <v>9</v>
@@ -2436,39 +2445,39 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B6">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B7">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F7">
         <v>8</v>
@@ -2476,82 +2485,82 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B8">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B11">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2561,7 +2570,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AT17"/>
+  <dimension ref="A1:AT18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2579,2382 +2588,2522 @@
   <sheetData>
     <row r="1" spans="1:46">
       <c r="A1" s="15" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>53</v>
-      </c>
       <c r="H1" s="15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>83</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="K1" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="Q1" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="X1" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="Y1" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z1" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA1" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB1" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE1" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF1" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG1" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH1" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI1" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ1" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK1" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL1" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN1" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO1" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AP1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ1" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR1" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS1" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="R1" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="S1" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="T1" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="U1" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="V1" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="W1" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="X1" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y1" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z1" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA1" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB1" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC1" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AT1" s="15" t="s">
         <v>55</v>
-      </c>
-      <c r="AE1" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF1" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG1" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH1" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI1" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ1" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK1" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL1" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM1" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN1" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO1" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AP1" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ1" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AR1" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS1" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT1" s="15" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:46">
       <c r="A2" s="16" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="P2" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="R2" s="18" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="S2" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="T2" s="18" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="U2" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="W2" s="18" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="X2" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Y2" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Z2" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AA2" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AB2" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AC2" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AD2" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AE2" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AF2" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG2" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="AG2" s="17" t="s">
-        <v>103</v>
-      </c>
       <c r="AH2" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AI2" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AJ2" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AK2" s="17" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AL2" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AM2" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AN2" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AO2" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AP2" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AQ2" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AR2" s="17" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AS2" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AT2" s="17" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:46">
       <c r="A3" s="16" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="P3" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" s="18" t="s">
+      <c r="Q3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="S3" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="H3" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="L3" s="18" t="s">
+      <c r="T3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="U3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="W3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="X3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA3" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB3" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="M3" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="N3" s="18" t="s">
+      <c r="AC3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG3" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN3" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="O3" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="P3" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q3" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="R3" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="S3" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="U3" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="V3" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="W3" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="X3" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y3" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z3" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA3" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB3" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC3" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD3" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE3" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF3" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG3" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH3" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AI3" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ3" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK3" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AL3" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AM3" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AN3" s="17" t="s">
-        <v>103</v>
-      </c>
       <c r="AO3" s="18" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AP3" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AQ3" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AR3" s="17" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AS3" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AT3" s="17" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:46">
       <c r="A4" s="16" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D4" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="M4" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="18" t="s">
+      <c r="N4" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="R4" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="U4" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="V4" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="X4" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y4" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z4" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA4" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB4" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC4" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD4" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE4" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF4" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG4" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH4" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI4" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ4" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK4" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL4" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM4" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN4" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO4" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="H4" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="N4" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="P4" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q4" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="R4" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="S4" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="T4" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="U4" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="V4" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="W4" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="X4" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y4" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z4" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA4" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB4" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC4" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD4" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE4" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF4" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG4" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH4" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="AI4" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ4" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="AK4" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AL4" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AM4" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AN4" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO4" s="17" t="s">
-        <v>98</v>
-      </c>
       <c r="AP4" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AQ4" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AR4" s="17" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AS4" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AT4" s="17" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:46">
       <c r="A5" s="16" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C5" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="G5" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="R5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="S5" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="T5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="U5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="V5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="W5" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="X5" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z5" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA5" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB5" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF5" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG5" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH5" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="18" t="s">
+      <c r="AI5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ5" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK5" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL5" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN5" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO5" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="P5" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q5" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="R5" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="S5" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="T5" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="U5" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="V5" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="W5" s="18" t="s">
+      <c r="AP5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ5" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR5" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS5" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="X5" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y5" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z5" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA5" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB5" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC5" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD5" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE5" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF5" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG5" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH5" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="AI5" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ5" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK5" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="AL5" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM5" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AN5" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="AO5" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP5" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AQ5" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="AR5" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="AS5" s="17" t="s">
-        <v>103</v>
-      </c>
       <c r="AT5" s="17" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:46">
       <c r="A6" s="16" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G6" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="R6" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="S6" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="T6" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="U6" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="V6" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="W6" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="X6" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y6" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z6" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA6" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB6" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="H6" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q6" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="R6" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="S6" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="T6" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="U6" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="V6" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="W6" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="X6" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y6" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z6" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA6" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB6" s="17" t="s">
-        <v>98</v>
-      </c>
       <c r="AC6" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AD6" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AE6" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AF6" s="17" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AG6" s="17" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AH6" s="18" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AI6" s="17" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AJ6" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AK6" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AL6" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AM6" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AN6" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AO6" s="17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AP6" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AQ6" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AR6" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AS6" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AT6" s="17" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:46">
       <c r="A7" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="H7" s="17" t="s">
+      <c r="I7" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="N7" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="I7" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="L7" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="N7" s="18" t="s">
+      <c r="O7" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q7" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="O7" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q7" s="17" t="s">
-        <v>103</v>
-      </c>
       <c r="R7" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="S7" s="18" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="T7" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="U7" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="V7" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="W7" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="X7" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Y7" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Z7" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AA7" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AB7" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AC7" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AD7" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AE7" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AF7" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AG7" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AH7" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AI7" s="17" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AJ7" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AK7" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AL7" s="17" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AM7" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AN7" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AO7" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AP7" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AQ7" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AR7" s="17" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AS7" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AT7" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:46">
       <c r="A8" s="16" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C8" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="M8" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="R8" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="S8" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="T8" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="U8" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="V8" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="W8" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="X8" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y8" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z8" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA8" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="AB8" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC8" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD8" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE8" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF8" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG8" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH8" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI8" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="L8" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q8" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="R8" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="S8" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="T8" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="U8" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="V8" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="W8" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="X8" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y8" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z8" s="18" t="s">
+      <c r="AJ8" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK8" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL8" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM8" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN8" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO8" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="AA8" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB8" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC8" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD8" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE8" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF8" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="AG8" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH8" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI8" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ8" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK8" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AL8" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM8" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AN8" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO8" s="17" t="s">
-        <v>98</v>
-      </c>
       <c r="AP8" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AQ8" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AR8" s="17" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AS8" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AT8" s="17" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:46">
       <c r="A9" s="16" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C9" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="P9" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="R9" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="S9" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="T9" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="U9" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="V9" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="W9" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="X9" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y9" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z9" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA9" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB9" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="N9" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="O9" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="P9" s="18" t="s">
+      <c r="AC9" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD9" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE9" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF9" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG9" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="Q9" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="R9" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="S9" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="T9" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="U9" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="V9" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="W9" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="X9" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y9" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z9" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA9" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB9" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC9" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD9" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE9" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF9" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG9" s="17" t="s">
-        <v>103</v>
-      </c>
       <c r="AH9" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI9" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ9" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK9" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL9" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM9" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN9" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO9" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="AI9" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="AJ9" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK9" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AL9" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM9" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AN9" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="AO9" s="17" t="s">
-        <v>98</v>
-      </c>
       <c r="AP9" s="17" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AQ9" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AR9" s="17" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AS9" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AT9" s="17" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:46">
       <c r="A10" s="16" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="17" t="s">
+      <c r="G10" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="I10" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>101</v>
-      </c>
       <c r="J10" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="K10" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>100</v>
-      </c>
       <c r="N10" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="P10" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q10" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="O10" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="P10" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q10" s="17" t="s">
-        <v>103</v>
-      </c>
       <c r="R10" s="17" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="S10" s="17" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="T10" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="U10" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="V10" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="W10" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="X10" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Y10" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Z10" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AA10" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AB10" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AC10" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AD10" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AE10" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AF10" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AG10" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AH10" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AI10" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AJ10" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AK10" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AL10" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AM10" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AN10" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AO10" s="18" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AP10" s="17" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AQ10" s="17" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AR10" s="18" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AS10" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AT10" s="17" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:46">
       <c r="A11" s="16" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C11" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="G11" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="P11" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q11" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="R11" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="S11" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="T11" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="U11" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="V11" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="G11" s="18" t="s">
+      <c r="W11" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="X11" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y11" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z11" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA11" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB11" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="H11" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="L11" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="N11" s="17" t="s">
+      <c r="AC11" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD11" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE11" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF11" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG11" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH11" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI11" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="O11" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="P11" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q11" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="R11" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="S11" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="T11" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="U11" s="18" t="s">
+      <c r="AJ11" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK11" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL11" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM11" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN11" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO11" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP11" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="V11" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="W11" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="X11" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y11" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z11" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA11" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB11" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC11" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD11" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE11" s="17" t="s">
+      <c r="AQ11" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="AF11" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG11" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH11" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AI11" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ11" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK11" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="AL11" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM11" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AN11" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="AO11" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AP11" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ11" s="18" t="s">
-        <v>104</v>
-      </c>
       <c r="AR11" s="17" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AS11" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AT11" s="17" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:46">
       <c r="A12" s="16" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D12" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>101</v>
-      </c>
       <c r="I12" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="P12" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q12" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="R12" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="S12" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="J12" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="L12" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="N12" s="17" t="s">
+      <c r="T12" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="U12" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="V12" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="W12" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="O12" s="17" t="s">
+      <c r="X12" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y12" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z12" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA12" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB12" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC12" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD12" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE12" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF12" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG12" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH12" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI12" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="P12" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q12" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="R12" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="S12" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="T12" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="U12" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="V12" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="W12" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="X12" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y12" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z12" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA12" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB12" s="18" t="s">
+      <c r="AJ12" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK12" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL12" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM12" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN12" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="AC12" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD12" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE12" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF12" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG12" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH12" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AI12" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ12" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK12" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AL12" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM12" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AN12" s="17" t="s">
-        <v>103</v>
-      </c>
       <c r="AO12" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AP12" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AQ12" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AR12" s="17" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AS12" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AT12" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:46">
       <c r="A13" s="16" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C13" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="G13" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="M13" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="18" t="s">
+      <c r="N13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="P13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="R13" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="S13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="T13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="U13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="V13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="W13" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="X13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z13" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB13" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="H13" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="K13" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="L13" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="M13" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="N13" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="O13" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="P13" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q13" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="R13" s="18" t="s">
+      <c r="AC13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE13" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF13" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH13" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL13" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN13" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="S13" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="T13" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="U13" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="V13" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="W13" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="X13" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y13" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z13" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA13" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB13" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC13" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD13" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE13" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF13" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG13" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH13" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI13" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ13" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK13" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AL13" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM13" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AN13" s="17" t="s">
-        <v>103</v>
-      </c>
       <c r="AO13" s="17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AP13" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AQ13" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AR13" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AS13" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AT13" s="17" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:46">
       <c r="A14" s="16" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C14" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>98</v>
-      </c>
       <c r="G14" s="17" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H14" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="I14" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="K14" s="17" t="s">
-        <v>103</v>
-      </c>
       <c r="L14" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q14" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="R14" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="S14" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="T14" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="U14" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="V14" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="W14" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="X14" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y14" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z14" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA14" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB14" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="M14" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="N14" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="O14" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="P14" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q14" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="R14" s="17" t="s">
+      <c r="AC14" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD14" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE14" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="S14" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="T14" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="U14" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="V14" s="18" t="s">
+      <c r="AF14" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG14" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH14" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI14" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ14" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK14" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL14" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM14" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN14" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO14" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="W14" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="X14" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y14" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z14" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA14" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB14" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC14" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD14" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE14" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF14" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG14" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH14" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI14" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ14" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK14" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AL14" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AM14" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AN14" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="AO14" s="17" t="s">
-        <v>98</v>
-      </c>
       <c r="AP14" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AQ14" s="17" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AR14" s="17" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AS14" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AT14" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:46">
       <c r="A15" s="16" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="N15" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q15" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="R15" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="S15" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="T15" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="U15" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="V15" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="W15" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="X15" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y15" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z15" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA15" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB15" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC15" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD15" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE15" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF15" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG15" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH15" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="O15" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="P15" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q15" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="R15" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="S15" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="T15" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="U15" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="V15" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="W15" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="X15" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y15" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z15" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA15" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB15" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC15" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD15" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE15" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF15" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG15" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH15" s="18" t="s">
-        <v>104</v>
-      </c>
       <c r="AI15" s="17" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AJ15" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AK15" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AL15" s="17" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AM15" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AN15" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AO15" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AP15" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AQ15" s="17" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AR15" s="18" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AS15" s="17" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AT15" s="17" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:46">
       <c r="A16" s="16" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D16" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="18" t="s">
-        <v>101</v>
-      </c>
       <c r="F16" s="18" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="J16" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="K16" s="18" t="s">
-        <v>101</v>
-      </c>
       <c r="L16" s="18" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M16" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="N16" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="O16" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="P16" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q16" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="R16" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="S16" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="T16" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="U16" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="V16" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="W16" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="N16" s="17" t="s">
+      <c r="X16" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y16" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z16" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA16" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB16" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC16" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD16" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE16" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF16" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG16" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH16" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI16" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ16" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="O16" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="P16" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q16" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="R16" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="S16" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="T16" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="U16" s="17" t="s">
+      <c r="AK16" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL16" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="V16" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="W16" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="X16" s="17" t="s">
+      <c r="AM16" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="Y16" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z16" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA16" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB16" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC16" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD16" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE16" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF16" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG16" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH16" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI16" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ16" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="AK16" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL16" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM16" s="18" t="s">
-        <v>101</v>
-      </c>
       <c r="AN16" s="18" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AO16" s="18" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AP16" s="17" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AQ16" s="18" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AR16" s="17" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AS16" s="18" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AT16" s="17" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:46">
       <c r="A17" s="16" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C17" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="I17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="L17" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="M17" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="N17" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="O17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q17" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="R17" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="S17" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="T17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="U17" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="V17" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="W17" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="X17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y17" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA17" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE17" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF17" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG17" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH17" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI17" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ17" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL17" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM17" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN17" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO17" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR17" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AS17" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AT17" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46">
+      <c r="A18" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="N18" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="O18" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="P18" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q18" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="R18" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="S18" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="T18" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="U18" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="V18" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="W18" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="X18" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y18" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z18" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA18" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB18" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC18" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD18" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE18" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF18" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG18" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="17" t="s">
+      <c r="AH18" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="H17" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="J17" s="18" t="s">
+      <c r="AI18" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ18" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK18" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL18" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM18" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN18" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO18" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="K17" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="L17" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="M17" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="N17" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="O17" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="P17" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q17" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="R17" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="S17" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="T17" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="U17" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="V17" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="W17" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="X17" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y17" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z17" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA17" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB17" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC17" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD17" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE17" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF17" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="AG17" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH17" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="AI17" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="AJ17" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="AK17" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AL17" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM17" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN17" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO17" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP17" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AQ17" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AR17" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS17" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="AT17" s="17" t="s">
-        <v>108</v>
+      <c r="AP18" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ18" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR18" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AS18" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AT18" s="17" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Mathematics CT 2.xlsx
+++ b/Results/Mathematics CT 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VH Website\vh-website\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD72B9DB-FD8A-4FD0-A00B-7373D3ACC7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABC4256-AC84-42DF-B357-8C87EC5932F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1043,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22:W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="W2">
         <f t="shared" ref="W2:W22" si="6">_xlfn.RANK.EQ(V2, $V$2:$V$1000, 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X2" t="s">
         <v>17</v>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="W3">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="X3" t="s">
         <v>19</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="W4">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y4">
         <f>SUM(Y1:Y3)</f>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="W5">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" thickBot="1">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="W6">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="s">
         <v>23</v>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="W7">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" thickBot="1">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="W8">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" thickBot="1">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="W9">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" thickBot="1">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="W10">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" thickBot="1">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="W11">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" thickBot="1">
@@ -1593,7 +1593,7 @@
       <c r="U12" s="13"/>
       <c r="W12">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" thickBot="1">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="W13">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" thickBot="1">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="W14">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" thickBot="1">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W15">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" thickBot="1">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="W16">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="15" customHeight="1" thickBot="1">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="W17">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="15" customHeight="1" thickBot="1">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="W18">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="15" customHeight="1" thickBot="1">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="W19">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="15" customHeight="1" thickBot="1">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="W20">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="15" customHeight="1" thickBot="1">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="W21">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="28.2" customHeight="1" thickBot="1">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="W22">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="43.2" customHeight="1">
@@ -2071,6 +2071,14 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
+      <c r="V23">
+        <f t="shared" ref="V23:V25" si="9">O23+R23+S23+T23+U23</f>
+        <v>13</v>
+      </c>
+      <c r="W23">
+        <f t="shared" ref="W23:W25" si="10">_xlfn.RANK.EQ(V23, $V$2:$V$1000, 0)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:23" ht="28.8" customHeight="1">
       <c r="A24" s="14">
@@ -2105,6 +2113,14 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
+      <c r="V24">
+        <f t="shared" si="9"/>
+        <v>28.5</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:23" ht="43.2" customHeight="1">
       <c r="A25" s="14">
@@ -2137,6 +2153,14 @@
       </c>
       <c r="Q25">
         <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="9"/>
+        <v>10.75</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
     </row>
